--- a/InputData/trans/VSbS/Vehicle Shares by Subregion.xlsx
+++ b/InputData/trans/VSbS/Vehicle Shares by Subregion.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olivia Ashmoore\Documents\EPS_Models by Region\RMI\RMI_all_states\CA\trans\VSbS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{767B363B-7BFF-4E68-8FFB-F5FF0BA7F7AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{858DE8C3-372C-499F-BE62-59DB6B06A151}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3900" yWindow="975" windowWidth="14520" windowHeight="17025" firstSheet="1" activeTab="3" xr2:uid="{F34BB550-7D2B-439D-9C81-D72ED5B29ABD}"/>
+    <workbookView xWindow="2730" yWindow="1110" windowWidth="13035" windowHeight="16890" firstSheet="2" activeTab="3" xr2:uid="{F34BB550-7D2B-439D-9C81-D72ED5B29ABD}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -1648,7 +1648,7 @@
         <v>108</v>
       </c>
       <c r="C1" s="104">
-        <v>45194</v>
+        <v>45258</v>
       </c>
     </row>
     <row r="3" spans="1:3">

--- a/InputData/trans/VSbS/Vehicle Shares by Subregion.xlsx
+++ b/InputData/trans/VSbS/Vehicle Shares by Subregion.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olivia Ashmoore\Documents\EPS_Models by Region\RMI\RMI_all_states\CA\trans\VSbS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{858DE8C3-372C-499F-BE62-59DB6B06A151}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{475935FA-ADC4-46EA-A5F4-7F38DE9973A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="1110" windowWidth="13035" windowHeight="16890" firstSheet="2" activeTab="3" xr2:uid="{F34BB550-7D2B-439D-9C81-D72ED5B29ABD}"/>
+    <workbookView xWindow="1170" yWindow="705" windowWidth="25680" windowHeight="16185" firstSheet="2" activeTab="2" xr2:uid="{F34BB550-7D2B-439D-9C81-D72ED5B29ABD}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -1648,7 +1648,7 @@
         <v>108</v>
       </c>
       <c r="C1" s="104">
-        <v>45258</v>
+        <v>45267</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -4734,8 +4734,8 @@
   </sheetPr>
   <dimension ref="A1:G61"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:G61"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6160,8 +6160,8 @@
   </sheetPr>
   <dimension ref="A1:G61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:G61"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6213,7 +6213,7 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:7">

--- a/InputData/trans/VSbS/Vehicle Shares by Subregion.xlsx
+++ b/InputData/trans/VSbS/Vehicle Shares by Subregion.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olivia Ashmoore\Documents\EPS_Models by Region\RMI\RMI_all_states\CA\trans\VSbS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nathaniyer/Library/Containers/com.microsoft.Excel/Data/state-eps-data-repository/CA/trans/VSbS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{475935FA-ADC4-46EA-A5F4-7F38DE9973A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{252F8341-F84E-B049-94C1-0EEB0F5994BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="705" windowWidth="25680" windowHeight="16185" firstSheet="2" activeTab="2" xr2:uid="{F34BB550-7D2B-439D-9C81-D72ED5B29ABD}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="13840" windowHeight="12640" firstSheet="1" activeTab="3" xr2:uid="{F34BB550-7D2B-439D-9C81-D72ED5B29ABD}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -1635,9 +1634,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="70.140625" customWidth="1"/>
+    <col min="2" max="2" width="70.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1648,7 +1647,7 @@
         <v>108</v>
       </c>
       <c r="C1" s="104">
-        <v>45267</v>
+        <v>45295</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1766,14 +1765,14 @@
       <selection sqref="A1:P1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="8.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="10"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" style="4" customWidth="1"/>
-    <col min="2" max="16" width="9.85546875" style="4" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="1" width="11.33203125" style="4" customWidth="1"/>
+    <col min="2" max="16" width="9.83203125" style="4" customWidth="1"/>
+    <col min="17" max="16384" width="9.1640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15">
+    <row r="1" spans="1:16" ht="14">
       <c r="A1" s="106" t="s">
         <v>76</v>
       </c>
@@ -1811,7 +1810,7 @@
       <c r="O2" s="96"/>
       <c r="P2" s="96"/>
     </row>
-    <row r="3" spans="1:16" ht="9">
+    <row r="3" spans="1:16" ht="11">
       <c r="A3" s="97" t="s">
         <v>75</v>
       </c>
@@ -1853,7 +1852,7 @@
       <c r="O4" s="108"/>
       <c r="P4" s="109"/>
     </row>
-    <row r="5" spans="1:16" ht="9">
+    <row r="5" spans="1:16" ht="11">
       <c r="A5" s="79"/>
       <c r="B5" s="110" t="s">
         <v>73</v>
@@ -1881,7 +1880,7 @@
       <c r="O5" s="111"/>
       <c r="P5" s="114"/>
     </row>
-    <row r="6" spans="1:16" ht="9">
+    <row r="6" spans="1:16" ht="11">
       <c r="A6" s="79" t="s">
         <v>68</v>
       </c>
@@ -1909,7 +1908,7 @@
       <c r="O6" s="88"/>
       <c r="P6" s="87"/>
     </row>
-    <row r="7" spans="1:16" ht="9">
+    <row r="7" spans="1:16" ht="11">
       <c r="A7" s="79"/>
       <c r="B7" s="79" t="s">
         <v>63</v>
@@ -1955,7 +1954,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="9">
+    <row r="8" spans="1:16" ht="11">
       <c r="A8" s="79"/>
       <c r="B8" s="79" t="s">
         <v>65</v>
@@ -2003,7 +2002,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="9">
+    <row r="9" spans="1:16" ht="11">
       <c r="A9" s="74"/>
       <c r="B9" s="74" t="s">
         <v>60</v>
@@ -2043,7 +2042,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="9">
+    <row r="10" spans="1:16" ht="11">
       <c r="A10" s="19" t="s">
         <v>58</v>
       </c>
@@ -2093,7 +2092,7 @@
         <v>5320340</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="9">
+    <row r="11" spans="1:16" ht="11">
       <c r="A11" s="19" t="s">
         <v>57</v>
       </c>
@@ -2143,7 +2142,7 @@
         <v>792826</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="9">
+    <row r="12" spans="1:16" ht="11">
       <c r="A12" s="19" t="s">
         <v>56</v>
       </c>
@@ -2193,7 +2192,7 @@
         <v>6053781</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="9">
+    <row r="13" spans="1:16" ht="11">
       <c r="A13" s="19" t="s">
         <v>55</v>
       </c>
@@ -2243,7 +2242,7 @@
         <v>2913369</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="9">
+    <row r="14" spans="1:16" ht="11">
       <c r="A14" s="52" t="s">
         <v>54</v>
       </c>
@@ -2293,7 +2292,7 @@
         <v>30398249</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="9">
+    <row r="15" spans="1:16" ht="11">
       <c r="A15" s="19" t="s">
         <v>53</v>
       </c>
@@ -2343,7 +2342,7 @@
         <v>5350708</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="9">
+    <row r="16" spans="1:16" ht="11">
       <c r="A16" s="19" t="s">
         <v>52</v>
       </c>
@@ -2393,7 +2392,7 @@
         <v>2867554</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="9">
+    <row r="17" spans="1:16" ht="11">
       <c r="A17" s="43" t="s">
         <v>51</v>
       </c>
@@ -2443,7 +2442,7 @@
         <v>1006135</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="9">
+    <row r="18" spans="1:16" ht="11">
       <c r="A18" s="19" t="s">
         <v>50</v>
       </c>
@@ -2493,7 +2492,7 @@
         <v>356537</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="9">
+    <row r="19" spans="1:16" ht="11">
       <c r="A19" s="19" t="s">
         <v>49</v>
       </c>
@@ -2543,7 +2542,7 @@
         <v>18464506</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="9">
+    <row r="20" spans="1:16" ht="11">
       <c r="A20" s="19" t="s">
         <v>48</v>
       </c>
@@ -2593,7 +2592,7 @@
         <v>8829596</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="9">
+    <row r="21" spans="1:16" ht="11">
       <c r="A21" s="19" t="s">
         <v>47</v>
       </c>
@@ -2643,7 +2642,7 @@
         <v>1244935</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="9">
+    <row r="22" spans="1:16" ht="11">
       <c r="A22" s="52" t="s">
         <v>46</v>
       </c>
@@ -2693,7 +2692,7 @@
         <v>1917677</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="9">
+    <row r="23" spans="1:16" ht="11">
       <c r="A23" s="19" t="s">
         <v>45</v>
       </c>
@@ -2743,7 +2742,7 @@
         <v>10587725</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="9">
+    <row r="24" spans="1:16" ht="11">
       <c r="A24" s="19" t="s">
         <v>44</v>
       </c>
@@ -2793,7 +2792,7 @@
         <v>6199901</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="9">
+    <row r="25" spans="1:16" ht="11">
       <c r="A25" s="43" t="s">
         <v>43</v>
       </c>
@@ -2843,7 +2842,7 @@
         <v>3787224</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="9">
+    <row r="26" spans="1:16" ht="11">
       <c r="A26" s="19" t="s">
         <v>42</v>
       </c>
@@ -2893,7 +2892,7 @@
         <v>2603543</v>
       </c>
     </row>
-    <row r="27" spans="1:16" ht="9">
+    <row r="27" spans="1:16" ht="11">
       <c r="A27" s="19" t="s">
         <v>41</v>
       </c>
@@ -2943,7 +2942,7 @@
         <v>4459685</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="9">
+    <row r="28" spans="1:16" ht="11">
       <c r="A28" s="19" t="s">
         <v>40</v>
       </c>
@@ -2993,7 +2992,7 @@
         <v>3861204</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="9">
+    <row r="29" spans="1:16" ht="11">
       <c r="A29" s="19" t="s">
         <v>39</v>
       </c>
@@ -3043,7 +3042,7 @@
         <v>1121106</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="9">
+    <row r="30" spans="1:16" ht="11">
       <c r="A30" s="52" t="s">
         <v>38</v>
       </c>
@@ -3093,7 +3092,7 @@
         <v>4211377</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="9">
+    <row r="31" spans="1:16" ht="11">
       <c r="A31" s="19" t="s">
         <v>37</v>
       </c>
@@ -3143,7 +3142,7 @@
         <v>5036686</v>
       </c>
     </row>
-    <row r="32" spans="1:16" ht="9">
+    <row r="32" spans="1:16" ht="11">
       <c r="A32" s="19" t="s">
         <v>36</v>
       </c>
@@ -3193,7 +3192,7 @@
         <v>8453239</v>
       </c>
     </row>
-    <row r="33" spans="1:16" ht="9">
+    <row r="33" spans="1:16" ht="11">
       <c r="A33" s="43" t="s">
         <v>35</v>
       </c>
@@ -3243,7 +3242,7 @@
         <v>5690749</v>
       </c>
     </row>
-    <row r="34" spans="1:16" ht="9">
+    <row r="34" spans="1:16" ht="11">
       <c r="A34" s="19" t="s">
         <v>34</v>
       </c>
@@ -3293,7 +3292,7 @@
         <v>2058975</v>
       </c>
     </row>
-    <row r="35" spans="1:16" ht="9">
+    <row r="35" spans="1:16" ht="11">
       <c r="A35" s="19" t="s">
         <v>33</v>
       </c>
@@ -3343,7 +3342,7 @@
         <v>5587022</v>
       </c>
     </row>
-    <row r="36" spans="1:16" ht="9">
+    <row r="36" spans="1:16" ht="11">
       <c r="A36" s="19" t="s">
         <v>32</v>
       </c>
@@ -3393,7 +3392,7 @@
         <v>1952553</v>
       </c>
     </row>
-    <row r="37" spans="1:16" ht="9">
+    <row r="37" spans="1:16" ht="11">
       <c r="A37" s="19" t="s">
         <v>31</v>
       </c>
@@ -3443,7 +3442,7 @@
         <v>1935357</v>
       </c>
     </row>
-    <row r="38" spans="1:16" ht="9">
+    <row r="38" spans="1:16" ht="11">
       <c r="A38" s="52" t="s">
         <v>30</v>
       </c>
@@ -3493,7 +3492,7 @@
         <v>2549357</v>
       </c>
     </row>
-    <row r="39" spans="1:16" ht="9">
+    <row r="39" spans="1:16" ht="11">
       <c r="A39" s="19" t="s">
         <v>29</v>
       </c>
@@ -3543,7 +3542,7 @@
         <v>1357535</v>
       </c>
     </row>
-    <row r="40" spans="1:16" ht="9">
+    <row r="40" spans="1:16" ht="11">
       <c r="A40" s="19" t="s">
         <v>28</v>
       </c>
@@ -3593,7 +3592,7 @@
         <v>6006247</v>
       </c>
     </row>
-    <row r="41" spans="1:16" ht="9">
+    <row r="41" spans="1:16" ht="11">
       <c r="A41" s="43" t="s">
         <v>27</v>
       </c>
@@ -3643,7 +3642,7 @@
         <v>1783151</v>
       </c>
     </row>
-    <row r="42" spans="1:16" ht="9">
+    <row r="42" spans="1:16" ht="11">
       <c r="A42" s="19" t="s">
         <v>26</v>
       </c>
@@ -3693,7 +3692,7 @@
         <v>11324755</v>
       </c>
     </row>
-    <row r="43" spans="1:16" ht="9">
+    <row r="43" spans="1:16" ht="11">
       <c r="A43" s="19" t="s">
         <v>25</v>
       </c>
@@ -3743,7 +3742,7 @@
         <v>8739280</v>
       </c>
     </row>
-    <row r="44" spans="1:16" ht="9">
+    <row r="44" spans="1:16" ht="11">
       <c r="A44" s="19" t="s">
         <v>24</v>
       </c>
@@ -3793,7 +3792,7 @@
         <v>899083</v>
       </c>
     </row>
-    <row r="45" spans="1:16" ht="9">
+    <row r="45" spans="1:16" ht="11">
       <c r="A45" s="19" t="s">
         <v>23</v>
       </c>
@@ -3843,7 +3842,7 @@
         <v>10592317</v>
       </c>
     </row>
-    <row r="46" spans="1:16" ht="9">
+    <row r="46" spans="1:16" ht="11">
       <c r="A46" s="52" t="s">
         <v>22</v>
       </c>
@@ -3893,7 +3892,7 @@
         <v>3730247</v>
       </c>
     </row>
-    <row r="47" spans="1:16" ht="9">
+    <row r="47" spans="1:16" ht="11">
       <c r="A47" s="19" t="s">
         <v>21</v>
       </c>
@@ -3943,7 +3942,7 @@
         <v>4095442</v>
       </c>
     </row>
-    <row r="48" spans="1:16" ht="9">
+    <row r="48" spans="1:16" ht="11">
       <c r="A48" s="19" t="s">
         <v>20</v>
       </c>
@@ -3993,7 +3992,7 @@
         <v>10690187</v>
       </c>
     </row>
-    <row r="49" spans="1:16" ht="9">
+    <row r="49" spans="1:16" ht="11">
       <c r="A49" s="43" t="s">
         <v>19</v>
       </c>
@@ -4043,7 +4042,7 @@
         <v>866625</v>
       </c>
     </row>
-    <row r="50" spans="1:16" ht="9">
+    <row r="50" spans="1:16" ht="11">
       <c r="A50" s="19" t="s">
         <v>18</v>
       </c>
@@ -4093,7 +4092,7 @@
         <v>4561299</v>
       </c>
     </row>
-    <row r="51" spans="1:16" ht="9">
+    <row r="51" spans="1:16" ht="11">
       <c r="A51" s="19" t="s">
         <v>17</v>
       </c>
@@ -4143,7 +4142,7 @@
         <v>1294282</v>
       </c>
     </row>
-    <row r="52" spans="1:16" ht="9">
+    <row r="52" spans="1:16" ht="11">
       <c r="A52" s="19" t="s">
         <v>16</v>
       </c>
@@ -4193,7 +4192,7 @@
         <v>5855373</v>
       </c>
     </row>
-    <row r="53" spans="1:16" ht="9">
+    <row r="53" spans="1:16" ht="11">
       <c r="A53" s="19" t="s">
         <v>15</v>
       </c>
@@ -4243,7 +4242,7 @@
         <v>22419490</v>
       </c>
     </row>
-    <row r="54" spans="1:16" ht="9">
+    <row r="54" spans="1:16" ht="11">
       <c r="A54" s="52" t="s">
         <v>14</v>
       </c>
@@ -4293,7 +4292,7 @@
         <v>2479604</v>
       </c>
     </row>
-    <row r="55" spans="1:16" ht="9">
+    <row r="55" spans="1:16" ht="11">
       <c r="A55" s="19" t="s">
         <v>13</v>
       </c>
@@ -4343,7 +4342,7 @@
         <v>607890</v>
       </c>
     </row>
-    <row r="56" spans="1:16" ht="9">
+    <row r="56" spans="1:16" ht="11">
       <c r="A56" s="19" t="s">
         <v>12</v>
       </c>
@@ -4393,7 +4392,7 @@
         <v>7606452</v>
       </c>
     </row>
-    <row r="57" spans="1:16" ht="9">
+    <row r="57" spans="1:16" ht="11">
       <c r="A57" s="43" t="s">
         <v>11</v>
       </c>
@@ -4443,7 +4442,7 @@
         <v>7257401</v>
       </c>
     </row>
-    <row r="58" spans="1:16" ht="9">
+    <row r="58" spans="1:16" ht="11">
       <c r="A58" s="19" t="s">
         <v>10</v>
       </c>
@@ -4493,7 +4492,7 @@
         <v>1657362</v>
       </c>
     </row>
-    <row r="59" spans="1:16" ht="9">
+    <row r="59" spans="1:16" ht="11">
       <c r="A59" s="19" t="s">
         <v>9</v>
       </c>
@@ -4543,7 +4542,7 @@
         <v>5616271</v>
       </c>
     </row>
-    <row r="60" spans="1:16" ht="9">
+    <row r="60" spans="1:16" ht="11">
       <c r="A60" s="19" t="s">
         <v>8</v>
       </c>
@@ -4593,7 +4592,7 @@
         <v>861028</v>
       </c>
     </row>
-    <row r="61" spans="1:16" ht="9">
+    <row r="61" spans="1:16" ht="11">
       <c r="A61" s="11" t="s">
         <v>7</v>
       </c>
@@ -4643,7 +4642,7 @@
         <v>275913237</v>
       </c>
     </row>
-    <row r="62" spans="1:16" ht="9">
+    <row r="62" spans="1:16" ht="11">
       <c r="A62" s="5"/>
       <c r="B62" s="5"/>
       <c r="C62" s="5"/>
@@ -4661,7 +4660,7 @@
       <c r="O62" s="5"/>
       <c r="P62" s="5"/>
     </row>
-    <row r="63" spans="1:16" ht="39.6" customHeight="1">
+    <row r="63" spans="1:16" ht="39.5" customHeight="1">
       <c r="A63" s="105" t="s">
         <v>6</v>
       </c>
@@ -4734,14 +4733,14 @@
   </sheetPr>
   <dimension ref="A1:G61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:G61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="2" max="7" width="13.7109375" customWidth="1"/>
+    <col min="2" max="7" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -6160,14 +6159,14 @@
   </sheetPr>
   <dimension ref="A1:G61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="2" max="7" width="13.7109375" customWidth="1"/>
+    <col min="2" max="7" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -6213,7 +6212,7 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:7">
